--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14290" windowHeight="10370"/>
+    <workbookView windowWidth="14730" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>//Remark</t>
   </si>
@@ -40,6 +40,9 @@
     <t>columnID</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -49,25 +52,58 @@
     <t>bool</t>
   </si>
   <si>
-    <t>吞噬</t>
-  </si>
-  <si>
-    <t>电梯容量提升</t>
-  </si>
-  <si>
-    <t>电梯容量提升+</t>
-  </si>
-  <si>
-    <t>电梯加速</t>
-  </si>
-  <si>
-    <t>电梯加速+</t>
+    <t>吸收</t>
+  </si>
+  <si>
+    <t>imgSkillNode1000</t>
+  </si>
+  <si>
+    <t>吸管扩容</t>
+  </si>
+  <si>
+    <t>imgSkillNode1001</t>
+  </si>
+  <si>
+    <t>吸管扩容+</t>
+  </si>
+  <si>
+    <t>imgSkillNode1002</t>
+  </si>
+  <si>
+    <t>吸管加速</t>
+  </si>
+  <si>
+    <t>imgSkillNode2001</t>
+  </si>
+  <si>
+    <t>吸管加速+</t>
+  </si>
+  <si>
+    <t>imgSkillNode2002</t>
   </si>
   <si>
     <t>排列延长</t>
   </si>
   <si>
+    <t>imgSkillNode3001</t>
+  </si>
+  <si>
     <t>排列延长+</t>
+  </si>
+  <si>
+    <t>imgSkillNode3002</t>
+  </si>
+  <si>
+    <t>高速吸收</t>
+  </si>
+  <si>
+    <t>imgSkillNode4001</t>
+  </si>
+  <si>
+    <t>高速吸收+</t>
+  </si>
+  <si>
+    <t>imgSkillNode4002</t>
   </si>
 </sst>
 </file>
@@ -998,18 +1034,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="12.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="13.4545454545455" customWidth="1"/>
     <col min="5" max="5" width="16.8181818181818" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1017,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1039,36 +1076,42 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1085,19 +1128,22 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1106,21 +1152,24 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1001</v>
@@ -1129,21 +1178,24 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1152,21 +1204,24 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>2001</v>
@@ -1175,21 +1230,24 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>3001</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1200,19 +1258,22 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3002</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>3001</v>
@@ -1222,6 +1283,61 @@
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4001</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>27</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
